--- a/data/PDX_metadata.xlsx
+++ b/data/PDX_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\MDA_Helen PiwnicaWorms\TNBC_PGx\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633E692C-120B-4183-AF00-BB5ABBA3A6CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DE8958-167B-45C5-BFCD-42EDFA96E04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2850" windowWidth="29040" windowHeight="15840" xr2:uid="{A5E766F2-AB79-4365-8BB2-041B51623704}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{A5E766F2-AB79-4365-8BB2-041B51623704}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,29 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="91">
   <si>
     <t>PIM046</t>
   </si>
@@ -70,9 +80,6 @@
     <t>PIM190</t>
   </si>
   <si>
-    <t>PIM191</t>
-  </si>
-  <si>
     <t>PIM231</t>
   </si>
   <si>
@@ -91,9 +98,6 @@
     <t>PIM284</t>
   </si>
   <si>
-    <t>PIM291</t>
-  </si>
-  <si>
     <t>PIM300</t>
   </si>
   <si>
@@ -172,12 +176,6 @@
     <t>Time</t>
   </si>
   <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>X0</t>
-  </si>
-  <si>
     <t>X185_006_X1</t>
   </si>
   <si>
@@ -244,9 +242,6 @@
     <t>X185_145_X0</t>
   </si>
   <si>
-    <t>X185_146_X0</t>
-  </si>
-  <si>
     <t>X185_184_X0</t>
   </si>
   <si>
@@ -268,9 +263,6 @@
     <t>X185_006_XS</t>
   </si>
   <si>
-    <t>X185_187_XS</t>
-  </si>
-  <si>
     <t>X185_194_XS</t>
   </si>
   <si>
@@ -286,9 +278,6 @@
     <t>X185_341_XS</t>
   </si>
   <si>
-    <t>XS</t>
-  </si>
-  <si>
     <t>PiD</t>
   </si>
   <si>
@@ -317,13 +306,22 @@
   </si>
   <si>
     <t>TNBCtype</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>MID</t>
+  </si>
+  <si>
+    <t>POST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,6 +355,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -372,19 +377,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,21 +460,21 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2396,10 +2401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3663971D-F71B-4DE7-95CA-EFC9AF4A6670}">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:X36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I2" sqref="I2:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2408,7 +2413,7 @@
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" customWidth="1"/>
     <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
@@ -2416,52 +2421,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="11" t="s">
+      <c r="D1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" s="11" t="s">
+      <c r="I1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>89</v>
+      <c r="J1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>47</v>
+        <v>22</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2491,13 +2496,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>47</v>
+        <v>23</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -2512,7 +2517,7 @@
         <v>0.84192999999999996</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I37" si="0">IF(L3,J3,L3)</f>
+        <f t="shared" ref="I3:I35" si="0">IF(L3,J3,L3)</f>
         <v>BL1</v>
       </c>
       <c r="J3" t="str">
@@ -2524,19 +2529,19 @@
         <v>BL1</v>
       </c>
       <c r="L3" t="b">
-        <f t="shared" ref="L3:L37" si="1">J3=K3</f>
+        <f t="shared" ref="L3:L35" si="1">J3=K3</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>46</v>
+        <v>24</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -2569,13 +2574,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>84</v>
+      <c r="C5" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -2587,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>-0.46859000000000001</v>
@@ -2611,13 +2616,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>47</v>
+        <v>25</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -2632,7 +2637,7 @@
         <v>1.1374</v>
       </c>
       <c r="I6" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J6" t="str">
         <f>VLOOKUP(B6,'[1]10ef9ed5-cbda-4ac6-b47e-1b2398e'!$A$2:$B$38,2,FALSE)</f>
@@ -2649,13 +2654,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>46</v>
+        <v>26</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -2688,13 +2693,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>47</v>
+        <v>27</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -2724,13 +2729,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>47</v>
+      <c r="C9" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -2760,13 +2765,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>47</v>
+      <c r="C10" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -2796,13 +2801,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>47</v>
+      <c r="C11" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -2832,13 +2837,13 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>47</v>
+      <c r="C12" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="D12">
         <v>8</v>
@@ -2850,7 +2855,7 @@
         <v>0.37440000000000001</v>
       </c>
       <c r="I12" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J12" t="str">
         <f>VLOOKUP(B12,'[1]10ef9ed5-cbda-4ac6-b47e-1b2398e'!$A$2:$B$38,2,FALSE)</f>
@@ -2867,13 +2872,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>47</v>
+      <c r="C13" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="D13">
         <v>9</v>
@@ -2903,13 +2908,13 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>47</v>
+      <c r="C14" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="D14">
         <v>10</v>
@@ -2939,13 +2944,13 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>47</v>
+      <c r="C15" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="D15">
         <v>11</v>
@@ -2978,13 +2983,13 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>46</v>
+      <c r="C16" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="D16">
         <v>11</v>
@@ -2999,7 +3004,7 @@
         <v>1.5947</v>
       </c>
       <c r="I16" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="J16" t="str">
         <f>VLOOKUP(B16,'[1]10ef9ed5-cbda-4ac6-b47e-1b2398e'!$A$2:$B$38,2,FALSE)</f>
@@ -3014,15 +3019,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>47</v>
+      <c r="C17" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="D17">
         <v>12</v>
@@ -3050,15 +3055,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>47</v>
+      <c r="C18" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="D18">
         <v>13</v>
@@ -3070,7 +3075,7 @@
         <v>1.9784999999999999</v>
       </c>
       <c r="I18" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J18" t="str">
         <f>VLOOKUP(B18,'[1]10ef9ed5-cbda-4ac6-b47e-1b2398e'!$A$2:$B$38,2,FALSE)</f>
@@ -3085,15 +3090,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>47</v>
+      <c r="C19" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="D19">
         <v>14</v>
@@ -3124,15 +3129,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>46</v>
+        <v>12</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="D20">
         <v>14</v>
@@ -3147,7 +3152,7 @@
         <v>1.2297</v>
       </c>
       <c r="I20" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="J20" t="str">
         <f>VLOOKUP(B20,'[1]10ef9ed5-cbda-4ac6-b47e-1b2398e'!$A$2:$B$38,2,FALSE)</f>
@@ -3162,24 +3167,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>47</v>
+        <v>13</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="D21">
-        <v>15</v>
-      </c>
-      <c r="F21" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="s">
-        <v>93</v>
+        <v>16</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1.0806</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v>UNS</v>
       </c>
       <c r="J21" t="str">
         <f>VLOOKUP(B21,'[1]10ef9ed5-cbda-4ac6-b47e-1b2398e'!$A$2:$B$38,2,FALSE)</f>
@@ -3187,22 +3199,26 @@
       </c>
       <c r="K21" t="str">
         <f>VLOOKUP(A21,'[2]c8bc5481-d866-4a96-a548-8dd463f'!$A$2:$D$93,2,FALSE)</f>
-        <v>BL1</v>
+        <v>UNS</v>
       </c>
       <c r="L21" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <f>LOG10(0.05)</f>
+        <v>-1.3010299956639813</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>47</v>
+        <v>16</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="D22">
         <v>16</v>
@@ -3214,7 +3230,7 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>1.0806</v>
+        <v>1.6579999999999999</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="0"/>
@@ -3233,63 +3249,72 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>46</v>
+        <v>14</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>1.6579999999999999</v>
+        <v>0.76626000000000005</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="0"/>
-        <v>UNS</v>
+        <v>IM</v>
       </c>
       <c r="J23" t="str">
         <f>VLOOKUP(B23,'[1]10ef9ed5-cbda-4ac6-b47e-1b2398e'!$A$2:$B$38,2,FALSE)</f>
-        <v>UNS</v>
+        <v>IM</v>
       </c>
       <c r="K23" t="str">
         <f>VLOOKUP(A23,'[2]c8bc5481-d866-4a96-a548-8dd463f'!$A$2:$D$93,2,FALSE)</f>
-        <v>UNS</v>
+        <v>IM</v>
       </c>
       <c r="L23" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24">
+        <v>18</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24">
+        <v>2.0365000000000002</v>
+      </c>
+      <c r="I24" t="s">
         <v>84</v>
-      </c>
-      <c r="D24">
-        <v>17</v>
-      </c>
-      <c r="F24" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="s">
-        <v>91</v>
       </c>
       <c r="J24" t="str">
         <f>VLOOKUP(B24,'[1]10ef9ed5-cbda-4ac6-b47e-1b2398e'!$A$2:$B$38,2,FALSE)</f>
@@ -3304,76 +3329,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>47</v>
+      <c r="C25" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="D25">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>0.76626000000000005</v>
-      </c>
-      <c r="I25" t="str">
-        <f t="shared" si="0"/>
-        <v>IM</v>
+        <v>-0.10668</v>
+      </c>
+      <c r="I25" t="s">
+        <v>83</v>
       </c>
       <c r="J25" t="str">
         <f>VLOOKUP(B25,'[1]10ef9ed5-cbda-4ac6-b47e-1b2398e'!$A$2:$B$38,2,FALSE)</f>
-        <v>IM</v>
+        <v>M</v>
       </c>
       <c r="K25" t="str">
         <f>VLOOKUP(A25,'[2]c8bc5481-d866-4a96-a548-8dd463f'!$A$2:$D$93,2,FALSE)</f>
-        <v>IM</v>
+        <v>UNS</v>
       </c>
       <c r="L25" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>84</v>
+        <v>17</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="D26">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F26" t="b">
         <v>1</v>
       </c>
-      <c r="G26" t="s">
-        <v>41</v>
-      </c>
       <c r="H26">
-        <v>2.0365000000000002</v>
-      </c>
-      <c r="I26" t="s">
-        <v>91</v>
+        <v>-0.14499999999999999</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="0"/>
+        <v>UNS</v>
       </c>
       <c r="J26" t="str">
         <f>VLOOKUP(B26,'[1]10ef9ed5-cbda-4ac6-b47e-1b2398e'!$A$2:$B$38,2,FALSE)</f>
-        <v>IM</v>
+        <v>UNS</v>
       </c>
       <c r="K26" t="str">
         <f>VLOOKUP(A26,'[2]c8bc5481-d866-4a96-a548-8dd463f'!$A$2:$D$93,2,FALSE)</f>
@@ -3381,18 +3403,18 @@
       </c>
       <c r="L26" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>47</v>
+        <v>20</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="D27">
         <v>19</v>
@@ -3400,14 +3422,15 @@
       <c r="E27">
         <v>7</v>
       </c>
-      <c r="F27" t="b">
+      <c r="F27" s="6" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>-0.10668</v>
-      </c>
-      <c r="I27" t="s">
-        <v>90</v>
+        <v>-1.4</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
       </c>
       <c r="J27" t="str">
         <f>VLOOKUP(B27,'[1]10ef9ed5-cbda-4ac6-b47e-1b2398e'!$A$2:$B$38,2,FALSE)</f>
@@ -3415,70 +3438,76 @@
       </c>
       <c r="K27" t="str">
         <f>VLOOKUP(A27,'[2]c8bc5481-d866-4a96-a548-8dd463f'!$A$2:$D$93,2,FALSE)</f>
-        <v>UNS</v>
+        <v>M</v>
       </c>
       <c r="L27" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>46</v>
+      <c r="C28" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="D28">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E28">
-        <v>7</v>
-      </c>
-      <c r="F28" t="b">
+        <v>8</v>
+      </c>
+      <c r="F28" s="9" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>-0.14499999999999999</v>
+        <v>1.5085999999999999</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="0"/>
-        <v>UNS</v>
+        <v>M</v>
       </c>
       <c r="J28" t="str">
         <f>VLOOKUP(B28,'[1]10ef9ed5-cbda-4ac6-b47e-1b2398e'!$A$2:$B$38,2,FALSE)</f>
-        <v>UNS</v>
+        <v>M</v>
       </c>
       <c r="K28" t="str">
         <f>VLOOKUP(A28,'[2]c8bc5481-d866-4a96-a548-8dd463f'!$A$2:$D$93,2,FALSE)</f>
-        <v>UNS</v>
+        <v>M</v>
       </c>
       <c r="L28" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>84</v>
+        <v>21</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="D29">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E29">
-        <v>7</v>
-      </c>
-      <c r="F29" s="5" t="b">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="F29" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29">
+        <v>2.5445000000000002</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="0"/>
@@ -3497,96 +3526,93 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>47</v>
+        <v>33</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="D30">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E30">
-        <v>8</v>
-      </c>
-      <c r="F30" s="12" t="b">
+        <v>9</v>
+      </c>
+      <c r="F30" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>1.5085999999999999</v>
+        <v>2.1941999999999999</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="0"/>
-        <v>M</v>
+        <v>MSL</v>
       </c>
       <c r="J30" t="str">
         <f>VLOOKUP(B30,'[1]10ef9ed5-cbda-4ac6-b47e-1b2398e'!$A$2:$B$38,2,FALSE)</f>
-        <v>M</v>
+        <v>MSL</v>
       </c>
       <c r="K30" t="str">
         <f>VLOOKUP(A30,'[2]c8bc5481-d866-4a96-a548-8dd463f'!$A$2:$D$93,2,FALSE)</f>
-        <v>M</v>
+        <v>MSL</v>
       </c>
       <c r="L30" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>84</v>
+        <v>29</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="D31">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E31">
-        <v>8</v>
-      </c>
-      <c r="F31" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31" t="s">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="F31" t="b">
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>2.5445000000000002</v>
+        <v>2.0964999999999998</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="0"/>
-        <v>M</v>
+        <v>UNS</v>
       </c>
       <c r="J31" t="str">
         <f>VLOOKUP(B31,'[1]10ef9ed5-cbda-4ac6-b47e-1b2398e'!$A$2:$B$38,2,FALSE)</f>
-        <v>M</v>
+        <v>UNS</v>
       </c>
       <c r="K31" t="str">
         <f>VLOOKUP(A31,'[2]c8bc5481-d866-4a96-a548-8dd463f'!$A$2:$D$93,2,FALSE)</f>
-        <v>M</v>
+        <v>UNS</v>
       </c>
       <c r="L31" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>47</v>
+        <v>31</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="D32">
         <v>21</v>
@@ -3594,11 +3620,14 @@
       <c r="E32">
         <v>9</v>
       </c>
-      <c r="F32" s="10" t="b">
-        <v>1</v>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>36</v>
       </c>
       <c r="H32">
-        <v>2.1941999999999999</v>
+        <v>2.33</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="0"/>
@@ -3619,33 +3648,33 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>46</v>
+        <v>32</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="D33">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E33">
-        <v>9</v>
-      </c>
-      <c r="F33" t="b">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F33" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4"/>
       <c r="H33">
-        <v>2.0964999999999998</v>
-      </c>
-      <c r="I33" t="str">
-        <f t="shared" si="0"/>
-        <v>UNS</v>
+        <v>1.5716000000000001</v>
+      </c>
+      <c r="I33" t="s">
+        <v>86</v>
       </c>
       <c r="J33" t="str">
         <f>VLOOKUP(B33,'[1]10ef9ed5-cbda-4ac6-b47e-1b2398e'!$A$2:$B$38,2,FALSE)</f>
-        <v>UNS</v>
+        <v>BL1</v>
       </c>
       <c r="K33" t="str">
         <f>VLOOKUP(A33,'[2]c8bc5481-d866-4a96-a548-8dd463f'!$A$2:$D$93,2,FALSE)</f>
@@ -3653,60 +3682,56 @@
       </c>
       <c r="L33" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>84</v>
+        <v>28</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="D34">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E34">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F34" t="b">
         <v>1</v>
       </c>
-      <c r="G34" t="s">
-        <v>38</v>
-      </c>
       <c r="H34">
-        <v>2.33</v>
-      </c>
-      <c r="I34" t="str">
-        <f t="shared" si="0"/>
-        <v>MSL</v>
+        <v>1.5301</v>
+      </c>
+      <c r="I34" t="s">
+        <v>86</v>
       </c>
       <c r="J34" t="str">
         <f>VLOOKUP(B34,'[1]10ef9ed5-cbda-4ac6-b47e-1b2398e'!$A$2:$B$38,2,FALSE)</f>
-        <v>MSL</v>
+        <v>BL1</v>
       </c>
       <c r="K34" t="str">
         <f>VLOOKUP(A34,'[2]c8bc5481-d866-4a96-a548-8dd463f'!$A$2:$D$93,2,FALSE)</f>
-        <v>MSL</v>
+        <v>UNS</v>
       </c>
       <c r="L34" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="D35">
         <v>22</v>
@@ -3714,15 +3739,18 @@
       <c r="E35">
         <v>10</v>
       </c>
-      <c r="F35" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G35" s="4"/>
+      <c r="F35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>37</v>
+      </c>
       <c r="H35">
-        <v>1.5716000000000001</v>
-      </c>
-      <c r="I35" t="s">
-        <v>93</v>
+        <v>1.2282999999999999</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="0"/>
+        <v>BL1</v>
       </c>
       <c r="J35" t="str">
         <f>VLOOKUP(B35,'[1]10ef9ed5-cbda-4ac6-b47e-1b2398e'!$A$2:$B$38,2,FALSE)</f>
@@ -3730,101 +3758,21 @@
       </c>
       <c r="K35" t="str">
         <f>VLOOKUP(A35,'[2]c8bc5481-d866-4a96-a548-8dd463f'!$A$2:$D$93,2,FALSE)</f>
-        <v>UNS</v>
+        <v>BL1</v>
       </c>
       <c r="L35" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36">
-        <v>22</v>
-      </c>
-      <c r="E36">
-        <v>10</v>
-      </c>
-      <c r="F36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>1.5301</v>
-      </c>
-      <c r="I36" t="s">
-        <v>93</v>
-      </c>
-      <c r="J36" t="str">
-        <f>VLOOKUP(B36,'[1]10ef9ed5-cbda-4ac6-b47e-1b2398e'!$A$2:$B$38,2,FALSE)</f>
-        <v>BL1</v>
-      </c>
-      <c r="K36" t="str">
-        <f>VLOOKUP(A36,'[2]c8bc5481-d866-4a96-a548-8dd463f'!$A$2:$D$93,2,FALSE)</f>
-        <v>UNS</v>
-      </c>
-      <c r="L36" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37">
-        <v>22</v>
-      </c>
-      <c r="E37">
-        <v>10</v>
-      </c>
-      <c r="F37" t="b">
-        <v>1</v>
-      </c>
-      <c r="G37" t="s">
-        <v>39</v>
-      </c>
-      <c r="H37">
-        <v>1.2282999999999999</v>
-      </c>
-      <c r="I37" t="str">
-        <f t="shared" si="0"/>
-        <v>BL1</v>
-      </c>
-      <c r="J37" t="str">
-        <f>VLOOKUP(B37,'[1]10ef9ed5-cbda-4ac6-b47e-1b2398e'!$A$2:$B$38,2,FALSE)</f>
-        <v>BL1</v>
-      </c>
-      <c r="K37" t="str">
-        <f>VLOOKUP(A37,'[2]c8bc5481-d866-4a96-a548-8dd463f'!$A$2:$D$93,2,FALSE)</f>
-        <v>BL1</v>
-      </c>
-      <c r="L37" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="3"/>
-      <c r="C38" s="1"/>
-      <c r="F38" s="5"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="1"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
-  <sortState ref="A2:J37">
-    <sortCondition ref="B2:B37"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J35">
+    <sortCondition ref="B2:B35"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/PDX_metadata.xlsx
+++ b/data/PDX_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\rpowell\Documents\GitHub\TNBC-PGx\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF4C184-6395-487D-86B5-6D8CE21A824C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EABC264-CDC9-4624-BE42-82464D980674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{A5E766F2-AB79-4365-8BB2-041B51623704}"/>
+    <workbookView xWindow="-28920" yWindow="-2850" windowWidth="29040" windowHeight="15840" xr2:uid="{A5E766F2-AB79-4365-8BB2-041B51623704}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="540">
   <si>
     <t>PIM046</t>
   </si>
@@ -1656,6 +1656,9 @@
   </si>
   <si>
     <t>ATID432</t>
+  </si>
+  <si>
+    <t>InVivo_PEV</t>
   </si>
 </sst>
 </file>
@@ -1859,7 +1862,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3098,21 +3101,22 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C35"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.4609375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.15234375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.69140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.84375" style="17"/>
+    <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -3131,8 +3135,11 @@
       <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="G1" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -3147,7 +3154,7 @@
       </c>
       <c r="G2" s="20"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -3165,7 +3172,7 @@
       </c>
       <c r="G3" s="20"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
@@ -3183,7 +3190,7 @@
       </c>
       <c r="G4" s="20"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -3204,7 +3211,7 @@
       </c>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -3220,9 +3227,11 @@
       <c r="F6" s="19">
         <v>1.1374</v>
       </c>
-      <c r="G6" s="20"/>
-    </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="G6" s="20">
+        <v>0.1216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -3238,9 +3247,11 @@
       <c r="F7" s="19">
         <v>1.5806</v>
       </c>
-      <c r="G7" s="20"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="G7" s="20">
+        <v>0.1709</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -3255,7 +3266,7 @@
       </c>
       <c r="G8" s="20"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -3270,7 +3281,7 @@
       </c>
       <c r="G9" s="20"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -3285,7 +3296,7 @@
       </c>
       <c r="G10" s="20"/>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -3300,7 +3311,7 @@
       </c>
       <c r="G11" s="20"/>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -3315,7 +3326,7 @@
       </c>
       <c r="G12" s="20"/>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -3330,7 +3341,7 @@
       </c>
       <c r="G13" s="20"/>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -3345,7 +3356,7 @@
       </c>
       <c r="G14" s="20"/>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -3361,9 +3372,11 @@
       <c r="F15" s="19">
         <v>1.1211</v>
       </c>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="G15" s="20">
+        <v>0.61838000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -3379,9 +3392,11 @@
       <c r="F16" s="19">
         <v>1.5947</v>
       </c>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="G16" s="20">
+        <v>0.22611000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
@@ -3396,7 +3411,7 @@
       </c>
       <c r="G17" s="20"/>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -3411,7 +3426,7 @@
       </c>
       <c r="G18" s="20"/>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -3427,9 +3442,11 @@
       <c r="F19" s="19">
         <v>0.72250999999999999</v>
       </c>
-      <c r="G19" s="20"/>
-    </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="G19" s="20">
+        <v>0.1091</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
@@ -3445,9 +3462,11 @@
       <c r="F20" s="19">
         <v>1.2297</v>
       </c>
-      <c r="G20" s="20"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="G20" s="20">
+        <v>0.21471999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
@@ -3465,7 +3484,7 @@
       </c>
       <c r="G21" s="20"/>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -3483,7 +3502,7 @@
       </c>
       <c r="G22" s="20"/>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -3499,9 +3518,11 @@
       <c r="F23" s="19">
         <v>0.76626000000000005</v>
       </c>
-      <c r="G23" s="20"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="G23" s="20">
+        <v>0.63053000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>19</v>
       </c>
@@ -3520,9 +3541,11 @@
       <c r="F24" s="19">
         <v>2.0365000000000002</v>
       </c>
-      <c r="G24" s="20"/>
-    </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="G24" s="20">
+        <v>0.85016999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
@@ -3540,7 +3563,7 @@
       </c>
       <c r="G25" s="20"/>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
@@ -3558,7 +3581,7 @@
       </c>
       <c r="G26" s="20"/>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -3576,7 +3599,7 @@
       </c>
       <c r="G27" s="20"/>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>18</v>
       </c>
@@ -3594,7 +3617,7 @@
       </c>
       <c r="G28" s="20"/>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>21</v>
       </c>
@@ -3615,7 +3638,7 @@
       </c>
       <c r="G29" s="20"/>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>33</v>
       </c>
@@ -3633,7 +3656,7 @@
       </c>
       <c r="G30" s="20"/>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -3651,7 +3674,7 @@
       </c>
       <c r="G31" s="20"/>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -3672,7 +3695,7 @@
       </c>
       <c r="G32" s="20"/>
     </row>
-    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -3691,7 +3714,7 @@
       </c>
       <c r="G33" s="20"/>
     </row>
-    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>28</v>
       </c>
@@ -3709,7 +3732,7 @@
       </c>
       <c r="G34" s="20"/>
     </row>
-    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>30</v>
       </c>
@@ -3783,12 +3806,12 @@
       <selection activeCell="A2" sqref="A2:A246"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>49</v>
       </c>
@@ -3796,7 +3819,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>LEFT(B2,7)</f>
         <v>185_001</v>
@@ -3808,7 +3831,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A66" si="0">LEFT(B3,7)</f>
         <v>185_002</v>
@@ -3820,7 +3843,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>185_003</v>
@@ -3832,7 +3855,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>185_004</v>
@@ -3844,7 +3867,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>185_005</v>
@@ -3856,7 +3879,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>185_006</v>
@@ -3868,7 +3891,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>185_007</v>
@@ -3880,7 +3903,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>185_008</v>
@@ -3892,7 +3915,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>185_009</v>
@@ -3904,7 +3927,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>185_010</v>
@@ -3916,7 +3939,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>185_011</v>
@@ -3928,7 +3951,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>185_012</v>
@@ -3940,7 +3963,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>185_013</v>
@@ -3952,7 +3975,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>185_014</v>
@@ -3964,7 +3987,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>185_015</v>
@@ -3976,7 +3999,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>185_016</v>
@@ -3988,7 +4011,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>185_017</v>
@@ -4000,7 +4023,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>185_018</v>
@@ -4012,7 +4035,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>185_019</v>
@@ -4024,7 +4047,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>185_020</v>
@@ -4036,7 +4059,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>185_021</v>
@@ -4048,7 +4071,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>185_022</v>
@@ -4060,7 +4083,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>185_023</v>
@@ -4072,7 +4095,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>185_024</v>
@@ -4084,7 +4107,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>185_025</v>
@@ -4096,7 +4119,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>185_026</v>
@@ -4108,7 +4131,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>185_027</v>
@@ -4120,7 +4143,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>185_028</v>
@@ -4132,7 +4155,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>185_029</v>
@@ -4144,7 +4167,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>185_030</v>
@@ -4156,7 +4179,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>185_031</v>
@@ -4168,7 +4191,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>185_032</v>
@@ -4180,7 +4203,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>185_033</v>
@@ -4192,7 +4215,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>185_034</v>
@@ -4204,7 +4227,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>185_035</v>
@@ -4216,7 +4239,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>185_036</v>
@@ -4228,7 +4251,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>185_037</v>
@@ -4240,7 +4263,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>185_038</v>
@@ -4252,7 +4275,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>185_039</v>
@@ -4264,7 +4287,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>185_040</v>
@@ -4276,7 +4299,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>185_041</v>
@@ -4288,7 +4311,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>185_042</v>
@@ -4300,7 +4323,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>185_043</v>
@@ -4312,7 +4335,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>185_044</v>
@@ -4324,7 +4347,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>185_045</v>
@@ -4336,7 +4359,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>185_046</v>
@@ -4348,7 +4371,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>185_047</v>
@@ -4360,7 +4383,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>185_048</v>
@@ -4372,7 +4395,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>185_049</v>
@@ -4384,7 +4407,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>185_050</v>
@@ -4396,7 +4419,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>185_051</v>
@@ -4408,7 +4431,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>185_052</v>
@@ -4420,7 +4443,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>185_053</v>
@@ -4432,7 +4455,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>185_054</v>
@@ -4444,7 +4467,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>185_056</v>
@@ -4456,7 +4479,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>185_057</v>
@@ -4468,7 +4491,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>185_058</v>
@@ -4480,7 +4503,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>185_059</v>
@@ -4492,7 +4515,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>185_060</v>
@@ -4504,7 +4527,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>185_061</v>
@@ -4516,7 +4539,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>185_062</v>
@@ -4528,7 +4551,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>185_063</v>
@@ -4540,7 +4563,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>185_064</v>
@@ -4552,7 +4575,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>185_065</v>
@@ -4564,7 +4587,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
         <v>185_066</v>
@@ -4576,7 +4599,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f t="shared" ref="A67:A130" si="1">LEFT(B67,7)</f>
         <v>185_067</v>
@@ -4588,7 +4611,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f t="shared" si="1"/>
         <v>185_068</v>
@@ -4600,7 +4623,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
         <v>185_069</v>
@@ -4612,7 +4635,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
         <v>185_070</v>
@@ -4624,7 +4647,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
         <v>185_071</v>
@@ -4636,7 +4659,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
         <v>185_072</v>
@@ -4648,7 +4671,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
         <v>185_073</v>
@@ -4660,7 +4683,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
         <v>185_074</v>
@@ -4672,7 +4695,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
         <v>185_075</v>
@@ -4684,7 +4707,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
         <v>185_076</v>
@@ -4696,7 +4719,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
         <v>185_077</v>
@@ -4708,7 +4731,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
         <v>185_078</v>
@@ -4720,7 +4743,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
         <v>185_079</v>
@@ -4732,7 +4755,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
         <v>185_080</v>
@@ -4744,7 +4767,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
         <v>185_081</v>
@@ -4756,7 +4779,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
         <v>185_082</v>
@@ -4768,7 +4791,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f t="shared" si="1"/>
         <v>185_083</v>
@@ -4780,7 +4803,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f t="shared" si="1"/>
         <v>185_084</v>
@@ -4792,7 +4815,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f t="shared" si="1"/>
         <v>185_085</v>
@@ -4804,7 +4827,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f t="shared" si="1"/>
         <v>185_086</v>
@@ -4816,7 +4839,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f t="shared" si="1"/>
         <v>185_088</v>
@@ -4828,7 +4851,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f t="shared" si="1"/>
         <v>185_089</v>
@@ -4840,7 +4863,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f t="shared" si="1"/>
         <v>185_090</v>
@@ -4852,7 +4875,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f t="shared" si="1"/>
         <v>185_091</v>
@@ -4864,7 +4887,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f t="shared" si="1"/>
         <v>185_092</v>
@@ -4876,7 +4899,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f t="shared" si="1"/>
         <v>185_093</v>
@@ -4888,7 +4911,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f t="shared" si="1"/>
         <v>185_094</v>
@@ -4900,7 +4923,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f t="shared" si="1"/>
         <v>185_095</v>
@@ -4912,7 +4935,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f t="shared" si="1"/>
         <v>185_096</v>
@@ -4924,7 +4947,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f t="shared" si="1"/>
         <v>185_097</v>
@@ -4936,7 +4959,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f t="shared" si="1"/>
         <v>185_098</v>
@@ -4948,7 +4971,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f t="shared" si="1"/>
         <v>185_099</v>
@@ -4960,7 +4983,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f t="shared" si="1"/>
         <v>185_100</v>
@@ -4972,7 +4995,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f t="shared" si="1"/>
         <v>185_101</v>
@@ -4984,7 +5007,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f t="shared" si="1"/>
         <v>185_102</v>
@@ -4996,7 +5019,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f t="shared" si="1"/>
         <v>185_103</v>
@@ -5008,7 +5031,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f t="shared" si="1"/>
         <v>185_104</v>
@@ -5020,7 +5043,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f t="shared" si="1"/>
         <v>185_105</v>
@@ -5032,7 +5055,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f t="shared" si="1"/>
         <v>185_107</v>
@@ -5044,7 +5067,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f t="shared" si="1"/>
         <v>185_109</v>
@@ -5056,7 +5079,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f t="shared" si="1"/>
         <v>185_110</v>
@@ -5068,7 +5091,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f t="shared" si="1"/>
         <v>185_111</v>
@@ -5080,7 +5103,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f t="shared" si="1"/>
         <v>185_112</v>
@@ -5092,7 +5115,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f t="shared" si="1"/>
         <v>185_113</v>
@@ -5104,7 +5127,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f t="shared" si="1"/>
         <v>185_114</v>
@@ -5116,7 +5139,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f t="shared" si="1"/>
         <v>185_115</v>
@@ -5128,7 +5151,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f t="shared" si="1"/>
         <v>185_116</v>
@@ -5140,7 +5163,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f t="shared" si="1"/>
         <v>185_117</v>
@@ -5152,7 +5175,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f t="shared" si="1"/>
         <v>185_118</v>
@@ -5164,7 +5187,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f t="shared" si="1"/>
         <v>185_119</v>
@@ -5176,7 +5199,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f t="shared" si="1"/>
         <v>185_120</v>
@@ -5188,7 +5211,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f t="shared" si="1"/>
         <v>185_121</v>
@@ -5200,7 +5223,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f t="shared" si="1"/>
         <v>185_122</v>
@@ -5212,7 +5235,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <f t="shared" si="1"/>
         <v>185_123</v>
@@ -5224,7 +5247,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f t="shared" si="1"/>
         <v>185_124</v>
@@ -5236,7 +5259,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
         <f t="shared" si="1"/>
         <v>185_125</v>
@@ -5248,7 +5271,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
         <f t="shared" si="1"/>
         <v>185_126</v>
@@ -5260,7 +5283,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
         <f t="shared" si="1"/>
         <v>185_127</v>
@@ -5272,7 +5295,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
         <f t="shared" si="1"/>
         <v>185_128</v>
@@ -5284,7 +5307,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
         <f t="shared" si="1"/>
         <v>185_129</v>
@@ -5296,7 +5319,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
         <f t="shared" si="1"/>
         <v>185_130</v>
@@ -5308,7 +5331,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
         <f t="shared" si="1"/>
         <v>185_131</v>
@@ -5320,7 +5343,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
         <f t="shared" si="1"/>
         <v>185_132</v>
@@ -5332,7 +5355,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
         <f t="shared" si="1"/>
         <v>185_133</v>
@@ -5344,7 +5367,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
         <f t="shared" ref="A131:A194" si="2">LEFT(B131,7)</f>
         <v>185_134</v>
@@ -5356,7 +5379,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
         <f t="shared" si="2"/>
         <v>185_135</v>
@@ -5368,7 +5391,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
         <f t="shared" si="2"/>
         <v>185_136</v>
@@ -5380,7 +5403,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
         <f t="shared" si="2"/>
         <v>185_137</v>
@@ -5392,7 +5415,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
         <f t="shared" si="2"/>
         <v>185_139</v>
@@ -5404,7 +5427,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
         <f t="shared" si="2"/>
         <v>185_140</v>
@@ -5416,7 +5439,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
         <f t="shared" si="2"/>
         <v>185_141</v>
@@ -5428,7 +5451,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
         <f t="shared" si="2"/>
         <v>185_142</v>
@@ -5440,7 +5463,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
         <f t="shared" si="2"/>
         <v>185_143</v>
@@ -5452,7 +5475,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
         <f t="shared" si="2"/>
         <v>185_144</v>
@@ -5464,7 +5487,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
         <f t="shared" si="2"/>
         <v>185_145</v>
@@ -5476,7 +5499,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
         <f t="shared" si="2"/>
         <v>185_146</v>
@@ -5488,7 +5511,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
         <f t="shared" si="2"/>
         <v>185_147</v>
@@ -5500,7 +5523,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
         <f t="shared" si="2"/>
         <v>185_148</v>
@@ -5512,7 +5535,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
         <f t="shared" si="2"/>
         <v>185_149</v>
@@ -5524,7 +5547,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
         <f t="shared" si="2"/>
         <v>185_150</v>
@@ -5536,7 +5559,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
         <f t="shared" si="2"/>
         <v>185_151</v>
@@ -5548,7 +5571,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
         <f t="shared" si="2"/>
         <v>185_152</v>
@@ -5560,7 +5583,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
         <f t="shared" si="2"/>
         <v>185_153</v>
@@ -5572,7 +5595,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
         <f t="shared" si="2"/>
         <v>185_154</v>
@@ -5584,7 +5607,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
         <f t="shared" si="2"/>
         <v>185_155</v>
@@ -5596,7 +5619,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <f t="shared" si="2"/>
         <v>185_156</v>
@@ -5608,7 +5631,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
         <f t="shared" si="2"/>
         <v>185_157</v>
@@ -5620,7 +5643,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
         <f t="shared" si="2"/>
         <v>185_158</v>
@@ -5632,7 +5655,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
         <f t="shared" si="2"/>
         <v>185_160</v>
@@ -5644,7 +5667,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
         <f t="shared" si="2"/>
         <v>185_161</v>
@@ -5656,7 +5679,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
         <f t="shared" si="2"/>
         <v>185_162</v>
@@ -5668,7 +5691,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
         <f t="shared" si="2"/>
         <v>185_163</v>
@@ -5680,7 +5703,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
         <f t="shared" si="2"/>
         <v>185_164</v>
@@ -5692,7 +5715,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
         <f t="shared" si="2"/>
         <v>185_165</v>
@@ -5704,7 +5727,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
         <f t="shared" si="2"/>
         <v>185_166</v>
@@ -5716,7 +5739,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="str">
         <f t="shared" si="2"/>
         <v>185_167</v>
@@ -5728,7 +5751,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="str">
         <f t="shared" si="2"/>
         <v>185_169</v>
@@ -5740,7 +5763,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="str">
         <f t="shared" si="2"/>
         <v>185_170</v>
@@ -5752,7 +5775,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
         <f t="shared" si="2"/>
         <v>185_171</v>
@@ -5764,7 +5787,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="str">
         <f t="shared" si="2"/>
         <v>185_172</v>
@@ -5776,7 +5799,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
         <f t="shared" si="2"/>
         <v>185_173</v>
@@ -5788,7 +5811,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
         <f t="shared" si="2"/>
         <v>185_174</v>
@@ -5800,7 +5823,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
         <f t="shared" si="2"/>
         <v>185_175</v>
@@ -5812,7 +5835,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="str">
         <f t="shared" si="2"/>
         <v>185_176</v>
@@ -5824,7 +5847,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="str">
         <f t="shared" si="2"/>
         <v>185_177</v>
@@ -5836,7 +5859,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
         <f t="shared" si="2"/>
         <v>185_178</v>
@@ -5848,7 +5871,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="str">
         <f t="shared" si="2"/>
         <v>185_179</v>
@@ -5860,7 +5883,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="str">
         <f t="shared" si="2"/>
         <v>185_180</v>
@@ -5872,7 +5895,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="str">
         <f t="shared" si="2"/>
         <v>185_181</v>
@@ -5884,7 +5907,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="str">
         <f t="shared" si="2"/>
         <v>185_182</v>
@@ -5896,7 +5919,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="str">
         <f t="shared" si="2"/>
         <v>185_183</v>
@@ -5908,7 +5931,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="str">
         <f t="shared" si="2"/>
         <v>185_184</v>
@@ -5920,7 +5943,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="str">
         <f t="shared" si="2"/>
         <v>185_186</v>
@@ -5932,7 +5955,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="str">
         <f t="shared" si="2"/>
         <v>185_187</v>
@@ -5944,7 +5967,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="str">
         <f t="shared" si="2"/>
         <v>185_189</v>
@@ -5956,7 +5979,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="str">
         <f t="shared" si="2"/>
         <v>185_190</v>
@@ -5968,7 +5991,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="str">
         <f t="shared" si="2"/>
         <v>185_191</v>
@@ -5980,7 +6003,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="str">
         <f t="shared" si="2"/>
         <v>185_192</v>
@@ -5992,7 +6015,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="str">
         <f t="shared" si="2"/>
         <v>185_193</v>
@@ -6004,7 +6027,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="str">
         <f t="shared" si="2"/>
         <v>185_194</v>
@@ -6016,7 +6039,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="str">
         <f t="shared" si="2"/>
         <v>185_195</v>
@@ -6028,7 +6051,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="str">
         <f t="shared" si="2"/>
         <v>185_196</v>
@@ -6040,7 +6063,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="str">
         <f t="shared" si="2"/>
         <v>185_197</v>
@@ -6052,7 +6075,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="str">
         <f t="shared" si="2"/>
         <v>185_198</v>
@@ -6064,7 +6087,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="str">
         <f t="shared" si="2"/>
         <v>185_200</v>
@@ -6076,7 +6099,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="str">
         <f t="shared" si="2"/>
         <v>185_202</v>
@@ -6088,7 +6111,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="str">
         <f t="shared" si="2"/>
         <v>185_203</v>
@@ -6100,7 +6123,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="str">
         <f t="shared" si="2"/>
         <v>185_205</v>
@@ -6112,7 +6135,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="str">
         <f t="shared" ref="A195:A246" si="3">LEFT(B195,7)</f>
         <v>185_206</v>
@@ -6124,7 +6147,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="str">
         <f t="shared" si="3"/>
         <v>185_207</v>
@@ -6136,7 +6159,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="str">
         <f t="shared" si="3"/>
         <v>185_208</v>
@@ -6148,7 +6171,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="str">
         <f t="shared" si="3"/>
         <v>185_209</v>
@@ -6160,7 +6183,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="str">
         <f t="shared" si="3"/>
         <v>185_210</v>
@@ -6172,7 +6195,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="str">
         <f t="shared" si="3"/>
         <v>185_211</v>
@@ -6184,7 +6207,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="str">
         <f t="shared" si="3"/>
         <v>185_212</v>
@@ -6196,7 +6219,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="str">
         <f t="shared" si="3"/>
         <v>185_213</v>
@@ -6208,7 +6231,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="str">
         <f t="shared" si="3"/>
         <v>185_214</v>
@@ -6220,7 +6243,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="str">
         <f t="shared" si="3"/>
         <v>185_215</v>
@@ -6232,7 +6255,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="str">
         <f t="shared" si="3"/>
         <v>185_216</v>
@@ -6244,7 +6267,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="str">
         <f t="shared" si="3"/>
         <v>185_217</v>
@@ -6256,7 +6279,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="str">
         <f t="shared" si="3"/>
         <v>185_218</v>
@@ -6268,7 +6291,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="str">
         <f t="shared" si="3"/>
         <v>185_219</v>
@@ -6280,7 +6303,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="str">
         <f t="shared" si="3"/>
         <v>185_220</v>
@@ -6292,7 +6315,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="str">
         <f t="shared" si="3"/>
         <v>185_221</v>
@@ -6304,7 +6327,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="str">
         <f t="shared" si="3"/>
         <v>185_222</v>
@@ -6316,7 +6339,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="str">
         <f t="shared" si="3"/>
         <v>185_223</v>
@@ -6328,7 +6351,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="str">
         <f t="shared" si="3"/>
         <v>185_224</v>
@@ -6340,7 +6363,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="str">
         <f t="shared" si="3"/>
         <v>185_225</v>
@@ -6352,7 +6375,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="str">
         <f t="shared" si="3"/>
         <v>185_226</v>
@@ -6364,7 +6387,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="str">
         <f t="shared" si="3"/>
         <v>185_227</v>
@@ -6376,7 +6399,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="str">
         <f t="shared" si="3"/>
         <v>185_228</v>
@@ -6388,7 +6411,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="str">
         <f t="shared" si="3"/>
         <v>185_230</v>
@@ -6400,7 +6423,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="str">
         <f t="shared" si="3"/>
         <v>185_231</v>
@@ -6412,7 +6435,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="str">
         <f t="shared" si="3"/>
         <v>185_232</v>
@@ -6424,7 +6447,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="str">
         <f t="shared" si="3"/>
         <v>185_233</v>
@@ -6436,7 +6459,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="str">
         <f t="shared" si="3"/>
         <v>185_234</v>
@@ -6448,7 +6471,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="str">
         <f t="shared" si="3"/>
         <v>185_279</v>
@@ -6460,7 +6483,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="str">
         <f t="shared" si="3"/>
         <v>185_282</v>
@@ -6472,7 +6495,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="str">
         <f t="shared" si="3"/>
         <v>185_298</v>
@@ -6484,7 +6507,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="str">
         <f t="shared" si="3"/>
         <v>185_299</v>
@@ -6496,7 +6519,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="str">
         <f t="shared" si="3"/>
         <v>185_303</v>
@@ -6508,7 +6531,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="str">
         <f t="shared" si="3"/>
         <v>185_304</v>
@@ -6520,7 +6543,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="str">
         <f t="shared" si="3"/>
         <v>185_310</v>
@@ -6532,7 +6555,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="str">
         <f t="shared" si="3"/>
         <v>185_313</v>
@@ -6544,7 +6567,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="str">
         <f t="shared" si="3"/>
         <v>185_335</v>
@@ -6556,7 +6579,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="str">
         <f t="shared" si="3"/>
         <v>185_336</v>
@@ -6568,7 +6591,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="str">
         <f t="shared" si="3"/>
         <v>185_337</v>
@@ -6580,7 +6603,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="str">
         <f t="shared" si="3"/>
         <v>185_339</v>
@@ -6592,7 +6615,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="str">
         <f t="shared" si="3"/>
         <v>185_341</v>
@@ -6604,7 +6627,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="str">
         <f t="shared" si="3"/>
         <v>185_344</v>
@@ -6616,7 +6639,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="str">
         <f t="shared" si="3"/>
         <v>185_346</v>
@@ -6628,7 +6651,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="str">
         <f t="shared" si="3"/>
         <v>185_347</v>
@@ -6640,7 +6663,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="str">
         <f t="shared" si="3"/>
         <v>185_350</v>
@@ -6652,7 +6675,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="str">
         <f t="shared" si="3"/>
         <v>185_351</v>
@@ -6664,7 +6687,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="str">
         <f t="shared" si="3"/>
         <v>185_352</v>
@@ -6676,7 +6699,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="str">
         <f t="shared" si="3"/>
         <v>185_362</v>
@@ -6688,7 +6711,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="str">
         <f t="shared" si="3"/>
         <v>185_366</v>
@@ -6700,7 +6723,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="str">
         <f t="shared" si="3"/>
         <v>185_379</v>
@@ -6712,7 +6735,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="str">
         <f t="shared" si="3"/>
         <v>185_380</v>
@@ -6724,7 +6747,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="str">
         <f t="shared" si="3"/>
         <v>185_384</v>
